--- a/boo.xlsx
+++ b/boo.xlsx
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>48135,85</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1,262</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>1,263</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -511,38 +511,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>usd</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>gbp</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
